--- a/data/excel/ManagetravellersCAM.xlsx
+++ b/data/excel/ManagetravellersCAM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6AC5FE-5E95-44B1-9F6B-ED87EF992BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA483D49-6FA7-476A-B3A4-E2F16DCF5A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,12 +339,6 @@
     <t>eqweqe123</t>
   </si>
   <si>
-    <t>August 16, 2022</t>
-  </si>
-  <si>
-    <t>August 10, 2022</t>
-  </si>
-  <si>
     <t>LeaveEndDate</t>
   </si>
   <si>
@@ -361,6 +355,12 @@
   </si>
   <si>
     <t>R0FFSNPG</t>
+  </si>
+  <si>
+    <t>September 20, 2022</t>
+  </si>
+  <si>
+    <t>September 26, 2022</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +434,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -480,6 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -763,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEE007B-2439-4C41-B27E-F3CF4369163A}">
   <dimension ref="A1:CF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="BY1" workbookViewId="0">
+      <selection activeCell="CH2" sqref="CH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +852,7 @@
     <col min="75" max="75" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="45" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="45" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -1040,7 +1047,7 @@
       <c r="BJ1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BK1" s="13" t="s">
         <v>61</v>
       </c>
       <c r="BL1" s="6" t="s">
@@ -1086,16 +1093,16 @@
         <v>80</v>
       </c>
       <c r="BZ1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="CA1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="CC1" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="CA1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="CB1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="CC1" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="CD1" s="6" t="s">
         <v>82</v>
@@ -1118,10 +1125,10 @@
         <v>89</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>97</v>
@@ -1340,10 +1347,10 @@
         <v>81</v>
       </c>
       <c r="BZ2" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="CA2" s="5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="CB2" s="1" t="s">
         <v>64</v>

--- a/data/excel/ManagetravellersCAM.xlsx
+++ b/data/excel/ManagetravellersCAM.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA483D49-6FA7-476A-B3A4-E2F16DCF5A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="8" r:id="rId1"/>
@@ -366,7 +365,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -767,11 +766,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEE007B-2439-4C41-B27E-F3CF4369163A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY1" workbookViewId="0">
-      <selection activeCell="CH2" sqref="CH2"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="BK2" sqref="BK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,19 +1369,19 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{9EDEB1A7-26A1-49C4-948C-C4D45F31220C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2">
       <formula1>"Business Trip,Family Trip,Expenses,Busniess trip INT."</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2" xr:uid="{B95D6D5F-7DF9-4EEB-A6EE-7E5899D089A7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{7D366626-A88E-4FF5-9AAE-2A9746522113}"/>
-    <hyperlink ref="CD2" r:id="rId2" xr:uid="{85A5B508-CE15-40D4-A200-31494C7CA264}"/>
-    <hyperlink ref="CE2:CF2" r:id="rId3" display="Admin@123" xr:uid="{B88BA228-2668-4815-B595-12F755F70E86}"/>
-    <hyperlink ref="CF2" r:id="rId4" xr:uid="{CEB33D52-4F2B-4698-9D84-0A8B1A72311E}"/>
-    <hyperlink ref="CE2" r:id="rId5" xr:uid="{F3864F4D-932F-4239-AC69-99D0859452B0}"/>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="CD2" r:id="rId2"/>
+    <hyperlink ref="CE2:CF2" r:id="rId3" display="Admin@123"/>
+    <hyperlink ref="CF2" r:id="rId4"/>
+    <hyperlink ref="CE2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
